--- a/mbs-perturbation/chain/elm/smote/chain_elm__smote_results.xlsx
+++ b/mbs-perturbation/chain/elm/smote/chain_elm__smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9255813953488372</v>
+        <v>0.8805970149253731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.868995633187773</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8963963963963963</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9538284896852883</v>
+        <v>0.9394820767955097</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8680851063829788</v>
+        <v>0.888268156424581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.828125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9460407239819005</v>
+        <v>0.9304406658496732</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9063829787234042</v>
+        <v>0.8656716417910447</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8875</v>
+        <v>0.8877551020408163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8968421052631579</v>
+        <v>0.8765743073047858</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9514583333333333</v>
+        <v>0.9142346938775511</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9216589861751152</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8547008547008547</v>
+        <v>0.8865979381443299</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8869179600886916</v>
+        <v>0.8843187660668379</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9590802511156494</v>
+        <v>0.9425167974560189</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.871900826446281</v>
+        <v>0.8826291079812206</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9295154185022027</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8997867803837953</v>
+        <v>0.8847058823529412</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9569964644268402</v>
+        <v>0.9237679142179607</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8987218586153233</v>
+        <v>0.8798434406347002</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8927577658935506</v>
+        <v>0.8793925601415286</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8949360168474609</v>
+        <v>0.8793362413613632</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9534808525086023</v>
+        <v>0.9300884296393427</v>
       </c>
     </row>
   </sheetData>
